--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/hl7-eu/unicom-ig/branches/mpd-r5/StructureDefinition/DT</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/DT</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:11:06+00:00</t>
+    <t>2022-10-21T23:00:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:00:19+00:00</t>
+    <t>2022-10-21T23:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:01:56+00:00</t>
+    <t>2022-10-21T23:10:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:10:36+00:00</t>
+    <t>2022-10-21T23:24:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T23:24:13+00:00</t>
+    <t>2022-10-23T08:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:50:48+00:00</t>
+    <t>2022-10-23T08:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T08:58:51+00:00</t>
+    <t>2022-10-23T18:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Date </t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -768,7 +765,7 @@
         <v>69</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>12</v>
@@ -831,18 +828,18 @@
         <v>71</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -853,25 +850,25 @@
         <v>70</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -922,13 +919,13 @@
         <v>69</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>69</v>
@@ -937,16 +934,16 @@
         <v>69</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -965,16 +962,16 @@
         <v>69</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1012,19 +1009,19 @@
         <v>69</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>70</v>
@@ -1036,10 +1033,10 @@
         <v>69</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T14:07:58+00:00</t>
+    <t>2022-11-05T15:30:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T22:26:11+00:00</t>
+    <t>2022-11-07T21:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/DT</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/DT</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-08T20:50:12+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T15:50:31+00:00</t>
+    <t>2022-11-11T20:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r5/StructureDefinition-DT.xlsx
+++ b/branches/mpd-r5/StructureDefinition-DT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
